--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\InputData\bldgs\EoCEDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoCEDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_EC49796ED478C075797B5AD74FD924CBF5C031D9" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
     <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -50,6 +41,60 @@
     <t>Page 1, Table 1</t>
   </si>
   <si>
+    <t>This is a subset of Table 1 that includes only values from AEO2003 (not AEO99).</t>
+  </si>
+  <si>
+    <t>It includes only the "Residential" and "Commercial" sections.</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>1-year</t>
+  </si>
+  <si>
+    <t>2-year</t>
+  </si>
+  <si>
+    <t>3-year</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Distillate Fuel</t>
+  </si>
+  <si>
+    <t>Short-Run Own-Price Elasticity</t>
+  </si>
+  <si>
+    <t>Long-Run Own-Price and Cross-Price Elasticity</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
     <t>Note:</t>
   </si>
   <si>
@@ -95,88 +140,57 @@
     <t>in the District Heating module.</t>
   </si>
   <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
     <t>We assume that biomass (wood) used in buildings is harvested by building users and</t>
   </si>
   <si>
     <t>therefore wood consumption is inelastic with respect to the price of wood in stores.</t>
   </si>
   <si>
-    <t>use US data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is a subset of Table 1 that includes only values from AEO2003 (not AEO99).</t>
-  </si>
-  <si>
-    <t>It includes only the "Residential" and "Commercial" sections.</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Short-Run Own-Price Elasticity</t>
-  </si>
-  <si>
-    <t>Long-Run Own-Price and Cross-Price Elasticity</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>1-year</t>
-  </si>
-  <si>
-    <t>2-year</t>
-  </si>
-  <si>
-    <t>3-year</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Distillate Fuel</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Urban Residential</t>
-  </si>
-  <si>
-    <t>Rural Residential</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
-    <t>petroleum diesel</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>biomass</t>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>We assume kerosene and fuel oil-burning equipment is similar to diesel-burning equipment.</t>
+  </si>
+  <si>
+    <t>We assume LPG/propane/butane-burning equipment is similar to natural gas-burning equipment.</t>
+  </si>
+  <si>
+    <t>We assume hydrogen-using equipment is similar to electricity-using equipment (as it may</t>
+  </si>
+  <si>
+    <t>contain fuel cells that produce electricity from hydrogen).</t>
+  </si>
+  <si>
+    <t>Elasticity by Fuel (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +198,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,23 +206,8 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -405,7 +404,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,23 +501,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -552,23 +536,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,25 +711,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="67.5" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -770,120 +734,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="26" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -891,35 +869,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -928,45 +906,45 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7">
         <v>-0.2</v>
@@ -987,9 +965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7">
         <v>-0.14000000000000001</v>
@@ -1010,9 +988,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10">
         <v>-0.15</v>
@@ -1033,9 +1011,9 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1044,45 +1022,45 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7">
         <v>-0.1</v>
@@ -1103,9 +1081,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7">
         <v>-0.14000000000000001</v>
@@ -1126,9 +1104,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10">
         <v>-0.13</v>
@@ -1150,44 +1128,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B2" s="24">
         <f>'EIA Table 1'!E7-'EIA Table 1'!B7</f>
@@ -1202,9 +1179,9 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" s="23">
         <f>B5</f>
@@ -1219,9 +1196,9 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="24">
         <f>'EIA Table 1'!F8-'EIA Table 1'!B8</f>
@@ -1236,9 +1213,9 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" s="24">
         <f>'EIA Table 1'!G9-'EIA Table 1'!B9</f>
@@ -1253,9 +1230,9 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1268,9 +1245,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1282,8 +1259,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="23">
+        <f>B5</f>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" ref="C8:D8" si="1">C5</f>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="23">
+        <f>B5</f>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" ref="C9:D9" si="2">C5</f>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="23">
+        <f>B4</f>
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" ref="C10:D10" si="3">C4</f>
+        <v>-0.26999999999999996</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="23">
+        <f>B2</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" ref="C11:D11" si="4">C2</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.35</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C3" formula="1"/>
@@ -1544,13 +1588,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7B9784-BE6F-4C18-AC0A-72296E677623}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77EB215-7F17-4F84-A780-F63B69BB6842}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8243AB2D-B806-43C8-B2C9-72AE0BB1B01F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7CB631-DCD9-4A90-B05E-D2A0903B9458}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4309BB2C-5DDF-479D-B45D-256AE893F221}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E84CE2-677E-474A-A48A-636CCFE02E08}"/>
 </file>